--- a/data/Data Table of Content.xlsx
+++ b/data/Data Table of Content.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliotli/anly-501-project-elliotzli/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789436F5-D7DE-7E47-A965-726CA7F3FF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DFAAA0-9ADA-184B-8211-924C3FD569C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16660" yWindow="500" windowWidth="21920" windowHeight="19200" xr2:uid="{2829CE52-1980-294B-A940-112D51E24799}"/>
+    <workbookView xWindow="14000" yWindow="500" windowWidth="24400" windowHeight="19200" xr2:uid="{2829CE52-1980-294B-A940-112D51E24799}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="pre-clean data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,9 +41,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Presentable Data</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>Table 11.2A</t>
+  </si>
+  <si>
+    <t>Pre-Clean Data</t>
   </si>
 </sst>
 </file>
@@ -569,7 +569,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -581,60 +581,60 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -642,69 +642,69 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
         <v>18</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -712,97 +712,97 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
         <v>31</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
         <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
         <v>36</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
         <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
         <v>40</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
         <v>42</v>
-      </c>
-      <c r="C25" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
         <v>47</v>
-      </c>
-      <c r="C29" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data Table of Content.xlsx
+++ b/data/Data Table of Content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliotli/anly-501-project-elliotzli/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DFAAA0-9ADA-184B-8211-924C3FD569C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D174EF8-D6D7-AC45-91BC-B0075A6355B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14000" yWindow="500" windowWidth="24400" windowHeight="19200" xr2:uid="{2829CE52-1980-294B-A940-112D51E24799}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24400" windowHeight="19200" xr2:uid="{2829CE52-1980-294B-A940-112D51E24799}"/>
   </bookViews>
   <sheets>
     <sheet name="pre-clean data" sheetId="1" r:id="rId1"/>
